--- a/Homework/homework1_calculations.xlsx
+++ b/Homework/homework1_calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu365-my.sharepoint.com/personal/guptan_smu_edu/Documents/SMU MSDS/202001/DS6373/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{A137BE16-5EEE-4D9F-9E7A-58091CFA4631}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{18077964-AFFB-40AB-95DC-80427A75DEB9}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{A137BE16-5EEE-4D9F-9E7A-58091CFA4631}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{97F0D682-314B-4FEE-865C-887A47BEE0DC}"/>
   <bookViews>
-    <workbookView xWindow="29430" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{0DA8DDE2-F3E2-4442-AF26-1A6A1BE10211}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0DA8DDE2-F3E2-4442-AF26-1A6A1BE10211}"/>
   </bookViews>
   <sheets>
     <sheet name="1.1" sheetId="1" r:id="rId1"/>
@@ -91,19 +91,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,11 +227,11 @@
     <tableColumn id="5" xr3:uid="{12590A36-1923-490B-B6A1-14B9B0A428EE}" name="Xt+1 - Mu" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Xt+1]]-Table1[[#Totals],[Sales (Xt)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B8B2AA03-9F06-4BB2-9491-7618A85A7741}" name="Gamma0" totalsRowFunction="custom" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{B8B2AA03-9F06-4BB2-9491-7618A85A7741}" name="Gamma0" totalsRowFunction="custom" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[Xt - Mu]]^2</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Gamma0])/COUNT(Table1[Gamma0])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{69B4F79D-5E86-4685-BD11-45147DA7D1C1}" name="Gamma1" totalsRowFunction="custom" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{69B4F79D-5E86-4685-BD11-45147DA7D1C1}" name="Gamma1" totalsRowFunction="custom" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Xt - Mu]]*Table1[[#This Row],[Xt+1 - Mu]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table1[Gamma1])/COUNT(Table1[Gamma1])</totalsRowFormula>
     </tableColumn>
@@ -563,7 +557,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,21 +1103,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1147,19 +1141,27 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE262FA-9ECF-40FD-B0AE-F2FAA0BB882E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8190c6ef-338c-48dd-84b7-b08ad1d527aa"/>
+    <ds:schemaRef ds:uri="589ac885-bad4-4eac-89be-ec2338c06621"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF3C4DD8-CDFD-49B3-8FEA-45D01CF21A55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFE262FA-9ECF-40FD-B0AE-F2FAA0BB882E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>